--- a/Resum 2018 - 2019.xlsx
+++ b/Resum 2018 - 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana.APCE\Dropbox\Estudi d'oferta\2023\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BCCE0E-4198-4DCB-A417-55E9E376E0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89824880-E176-4014-9DB9-CA6663AB86D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="741" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" tabRatio="741" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nombre" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Preu - m2" sheetId="9" r:id="rId5"/>
     <sheet name="Àmbits territorials" sheetId="10" r:id="rId6"/>
     <sheet name="BCN + districte+barris 2018-19" sheetId="13" r:id="rId7"/>
-    <sheet name="BCN+Districte+Barris 2018-2019" sheetId="18" r:id="rId8"/>
+    <sheet name="BCN+districtes+barris" sheetId="18" r:id="rId8"/>
     <sheet name="Corones-Àmbits Tur. 2018-2019" sheetId="20" r:id="rId9"/>
     <sheet name="Municipis 2018-2019" sheetId="16" r:id="rId10"/>
   </sheets>
@@ -1332,13 +1332,13 @@
     <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1362,8 +1362,8 @@
     <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1371,8 +1371,8 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2475,7 +2475,7 @@
   </sheetPr>
   <dimension ref="A1:AO112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N73" workbookViewId="0">
+    <sheetView topLeftCell="N73" workbookViewId="0">
       <selection activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
@@ -14395,78 +14395,78 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="121" t="s">
+      <c r="L2" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="121" t="s">
+      <c r="M2" s="120" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
     </row>
     <row r="4" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -17358,24 +17358,24 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
-      <c r="B82" s="120" t="s">
+      <c r="B82" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="120"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="120"/>
-      <c r="F82" s="120" t="s">
+      <c r="C82" s="122"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G82" s="120"/>
-      <c r="H82" s="120"/>
-      <c r="I82" s="120"/>
-      <c r="J82" s="120" t="s">
+      <c r="G82" s="122"/>
+      <c r="H82" s="122"/>
+      <c r="I82" s="122"/>
+      <c r="J82" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="K82" s="120"/>
-      <c r="L82" s="120"/>
-      <c r="M82" s="120"/>
+      <c r="K82" s="122"/>
+      <c r="L82" s="122"/>
+      <c r="M82" s="122"/>
     </row>
     <row r="83" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
@@ -20303,24 +20303,24 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
-      <c r="B160" s="120" t="s">
+      <c r="B160" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C160" s="120"/>
-      <c r="D160" s="120"/>
-      <c r="E160" s="120"/>
-      <c r="F160" s="120" t="s">
+      <c r="C160" s="122"/>
+      <c r="D160" s="122"/>
+      <c r="E160" s="122"/>
+      <c r="F160" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G160" s="120"/>
-      <c r="H160" s="120"/>
-      <c r="I160" s="120"/>
-      <c r="J160" s="120" t="s">
+      <c r="G160" s="122"/>
+      <c r="H160" s="122"/>
+      <c r="I160" s="122"/>
+      <c r="J160" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="K160" s="120"/>
-      <c r="L160" s="120"/>
-      <c r="M160" s="120"/>
+      <c r="K160" s="122"/>
+      <c r="L160" s="122"/>
+      <c r="M160" s="122"/>
     </row>
     <row r="161" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
@@ -23248,6 +23248,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="J160:M160"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:M82"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -23263,12 +23269,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="J160:M160"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:M82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35147,6 +35147,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:M78"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
@@ -35156,24 +35174,6 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="K153:M153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -35212,12 +35212,12 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
       <c r="I1" s="127"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="75"/>
@@ -38180,18 +38180,18 @@
       <c r="G81" s="127"/>
       <c r="H81" s="127"/>
       <c r="I81" s="127"/>
-      <c r="J81" s="121" t="s">
+      <c r="J81" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="K81" s="121"/>
-      <c r="L81" s="121"/>
-      <c r="M81" s="121"/>
+      <c r="K81" s="120"/>
+      <c r="L81" s="120"/>
+      <c r="M81" s="120"/>
     </row>
     <row r="82" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="120" t="s">
+      <c r="C82" s="122" t="s">
         <v>93</v>
       </c>
       <c r="D82" s="127"/>
@@ -38199,7 +38199,7 @@
       <c r="F82" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="G82" s="120" t="s">
+      <c r="G82" s="122" t="s">
         <v>93</v>
       </c>
       <c r="H82" s="127"/>
@@ -38207,7 +38207,7 @@
       <c r="J82" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="K82" s="120" t="s">
+      <c r="K82" s="122" t="s">
         <v>93</v>
       </c>
       <c r="L82" s="127"/>
@@ -41131,18 +41131,18 @@
       <c r="G156" s="127"/>
       <c r="H156" s="127"/>
       <c r="I156" s="127"/>
-      <c r="J156" s="121" t="s">
+      <c r="J156" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="K156" s="121"/>
-      <c r="L156" s="121"/>
-      <c r="M156" s="121"/>
+      <c r="K156" s="120"/>
+      <c r="L156" s="120"/>
+      <c r="M156" s="120"/>
     </row>
     <row r="157" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="C157" s="120" t="s">
+      <c r="C157" s="122" t="s">
         <v>94</v>
       </c>
       <c r="D157" s="127"/>
@@ -41150,7 +41150,7 @@
       <c r="F157" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="G157" s="120" t="s">
+      <c r="G157" s="122" t="s">
         <v>94</v>
       </c>
       <c r="H157" s="127"/>
@@ -41158,7 +41158,7 @@
       <c r="J157" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="K157" s="120" t="s">
+      <c r="K157" s="122" t="s">
         <v>94</v>
       </c>
       <c r="L157" s="127"/>
@@ -44068,17 +44068,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="B157:B158"/>
     <mergeCell ref="C157:E157"/>
     <mergeCell ref="F157:F158"/>
@@ -44095,6 +44084,17 @@
     <mergeCell ref="F156:I156"/>
     <mergeCell ref="J156:M156"/>
     <mergeCell ref="K157:M157"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -48817,261 +48817,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="130">
+      <c r="B1" s="133">
         <v>2018</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="P1" s="130">
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="P1" s="133">
         <v>2019</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AD1" s="130" t="s">
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AD1" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="130"/>
-      <c r="AJ1" s="130"/>
-      <c r="AK1" s="130"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="133"/>
+      <c r="AI1" s="133"/>
+      <c r="AJ1" s="133"/>
+      <c r="AK1" s="133"/>
+      <c r="AL1" s="133"/>
+      <c r="AM1" s="133"/>
+      <c r="AN1" s="133"/>
+      <c r="AO1" s="133"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120" t="s">
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="O2" s="87"/>
-      <c r="P2" s="120" t="s">
+      <c r="P2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120" t="s">
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120" t="s">
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
       <c r="AC2" s="87"/>
-      <c r="AD2" s="120" t="s">
+      <c r="AD2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120" t="s">
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120" t="s">
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
     </row>
     <row r="3" spans="1:41" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="122" t="s">
         <v>81</v>
       </c>
       <c r="I3" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="120" t="s">
+      <c r="K3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="120" t="s">
+      <c r="L3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="120" t="s">
+      <c r="M3" s="122" t="s">
         <v>83</v>
       </c>
       <c r="O3" s="95"/>
-      <c r="P3" s="120" t="s">
+      <c r="P3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="120" t="s">
+      <c r="R3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="120" t="s">
+      <c r="S3" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="120" t="s">
+      <c r="T3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="120" t="s">
+      <c r="U3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="120" t="s">
+      <c r="V3" s="122" t="s">
         <v>81</v>
       </c>
       <c r="W3" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="120" t="s">
+      <c r="X3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="120" t="s">
+      <c r="Y3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="120" t="s">
+      <c r="Z3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="120" t="s">
+      <c r="AA3" s="122" t="s">
         <v>83</v>
       </c>
       <c r="AC3" s="95"/>
-      <c r="AD3" s="120" t="s">
+      <c r="AD3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="120" t="s">
+      <c r="AE3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="AF3" s="120" t="s">
+      <c r="AF3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="120" t="s">
+      <c r="AG3" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="AH3" s="120" t="s">
+      <c r="AH3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="120" t="s">
+      <c r="AI3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="AJ3" s="120" t="s">
+      <c r="AJ3" s="122" t="s">
         <v>81</v>
       </c>
       <c r="AK3" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="AL3" s="120" t="s">
+      <c r="AL3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="AM3" s="120" t="s">
+      <c r="AM3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="AN3" s="120" t="s">
+      <c r="AN3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="120" t="s">
+      <c r="AO3" s="122" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:41" s="83" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="88"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
       <c r="I4" s="132"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
       <c r="O4" s="88"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
       <c r="W4" s="132"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
       <c r="AC4" s="88"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
       <c r="AK4" s="132"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -57090,6 +57090,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="AD1:AO1"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
@@ -57106,38 +57138,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="AD1:AO1"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57150,8 +57150,8 @@
   </sheetPr>
   <dimension ref="A1:AO88"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AM41" sqref="AM41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -57186,261 +57186,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="130">
+      <c r="B1" s="133">
         <v>2018</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="P1" s="130">
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="P1" s="133">
         <v>2019</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AD1" s="130" t="s">
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AD1" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="130"/>
-      <c r="AJ1" s="130"/>
-      <c r="AK1" s="130"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="133"/>
+      <c r="AI1" s="133"/>
+      <c r="AJ1" s="133"/>
+      <c r="AK1" s="133"/>
+      <c r="AL1" s="133"/>
+      <c r="AM1" s="133"/>
+      <c r="AN1" s="133"/>
+      <c r="AO1" s="133"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120" t="s">
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="O2" s="87"/>
-      <c r="P2" s="120" t="s">
+      <c r="P2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120" t="s">
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120" t="s">
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
       <c r="AC2" s="87"/>
-      <c r="AD2" s="120" t="s">
+      <c r="AD2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120" t="s">
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120" t="s">
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
     </row>
     <row r="3" spans="1:41" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="122" t="s">
         <v>81</v>
       </c>
       <c r="I3" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="120" t="s">
+      <c r="K3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="120" t="s">
+      <c r="L3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="120" t="s">
+      <c r="M3" s="122" t="s">
         <v>83</v>
       </c>
       <c r="O3" s="95"/>
-      <c r="P3" s="120" t="s">
+      <c r="P3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="120" t="s">
+      <c r="R3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="120" t="s">
+      <c r="S3" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="120" t="s">
+      <c r="T3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="120" t="s">
+      <c r="U3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="120" t="s">
+      <c r="V3" s="122" t="s">
         <v>81</v>
       </c>
       <c r="W3" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="120" t="s">
+      <c r="X3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="120" t="s">
+      <c r="Y3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="120" t="s">
+      <c r="Z3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="120" t="s">
+      <c r="AA3" s="122" t="s">
         <v>83</v>
       </c>
       <c r="AC3" s="95"/>
-      <c r="AD3" s="120" t="s">
+      <c r="AD3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="120" t="s">
+      <c r="AE3" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="AF3" s="120" t="s">
+      <c r="AF3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="120" t="s">
+      <c r="AG3" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="AH3" s="120" t="s">
+      <c r="AH3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="120" t="s">
+      <c r="AI3" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="AJ3" s="120" t="s">
+      <c r="AJ3" s="122" t="s">
         <v>81</v>
       </c>
       <c r="AK3" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="AL3" s="120" t="s">
+      <c r="AL3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="AM3" s="120" t="s">
+      <c r="AM3" s="122" t="s">
         <v>253</v>
       </c>
-      <c r="AN3" s="120" t="s">
+      <c r="AN3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="120" t="s">
+      <c r="AO3" s="122" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:41" s="83" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="88"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
       <c r="I4" s="132"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
       <c r="O4" s="88"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
       <c r="W4" s="132"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
       <c r="AC4" s="88"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
       <c r="AK4" s="132"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -64083,16 +64083,28 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="AD1:AO1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
@@ -64109,28 +64121,16 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="AD1:AO1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64173,34 +64173,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="130">
+      <c r="B1" s="133">
         <v>2018</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="P1" s="130">
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="P1" s="133">
         <v>2019</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
       <c r="AD1" s="134" t="s">
         <v>235</v>
       </c>
@@ -64218,216 +64218,216 @@
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120" t="s">
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="120" t="s">
+      <c r="P2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120" t="s">
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120" t="s">
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
       <c r="AC2" s="11"/>
-      <c r="AD2" s="120" t="s">
+      <c r="AD2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120" t="s">
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120" t="s">
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="114"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="121" t="s">
+      <c r="I3" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="121" t="s">
+      <c r="K3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="121" t="s">
+      <c r="L3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="121" t="s">
+      <c r="M3" s="120" t="s">
         <v>83</v>
       </c>
       <c r="O3" s="11"/>
-      <c r="P3" s="121" t="s">
+      <c r="P3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="121" t="s">
+      <c r="Q3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="121" t="s">
+      <c r="R3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="121" t="s">
+      <c r="S3" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="121" t="s">
+      <c r="T3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="121" t="s">
+      <c r="U3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="121" t="s">
+      <c r="V3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="121" t="s">
+      <c r="W3" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="121" t="s">
+      <c r="X3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="121" t="s">
+      <c r="Y3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="121" t="s">
+      <c r="Z3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="121" t="s">
+      <c r="AA3" s="120" t="s">
         <v>83</v>
       </c>
       <c r="AC3" s="11"/>
-      <c r="AD3" s="121" t="s">
+      <c r="AD3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="121" t="s">
+      <c r="AE3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="AF3" s="121" t="s">
+      <c r="AF3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="121" t="s">
+      <c r="AG3" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="AH3" s="121" t="s">
+      <c r="AH3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="121" t="s">
+      <c r="AI3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="AJ3" s="121" t="s">
+      <c r="AJ3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="AK3" s="121" t="s">
+      <c r="AK3" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="AL3" s="121" t="s">
+      <c r="AL3" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="AM3" s="121" t="s">
+      <c r="AM3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="AN3" s="121" t="s">
+      <c r="AN3" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="121" t="s">
+      <c r="AO3" s="120" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
       <c r="O4" s="11"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="121"/>
     </row>
     <row r="5" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
@@ -72443,16 +72443,28 @@
     <row r="75" spans="1:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="AD1:AO1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
@@ -72469,28 +72481,16 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="AD1:AO1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
